--- a/Ebaak/sample.xlsx
+++ b/Ebaak/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abtin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\IIS\Ebaak\Ebaak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C949477F-D642-415B-AA83-5E634AD3F008}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1382F0-6B67-41FD-A533-FC538D449C6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="600" windowWidth="17265" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="187">
   <si>
     <t xml:space="preserve">موتور سیکلت برقی </t>
   </si>
@@ -538,6 +538,54 @@
   </si>
   <si>
     <t>*N45AE1GDRKFB00167</t>
+  </si>
+  <si>
+    <t>شماره مجوز کاردکس</t>
+  </si>
+  <si>
+    <t>کد اقتصادی</t>
+  </si>
+  <si>
+    <t>پلیس راهنمایی رانندگی</t>
+  </si>
+  <si>
+    <t>نام و نام خانوادگی</t>
+  </si>
+  <si>
+    <t>سمت</t>
+  </si>
+  <si>
+    <t>تعداد چرخ</t>
+  </si>
+  <si>
+    <t>تعداد محور</t>
+  </si>
+  <si>
+    <t>ظرفیت</t>
+  </si>
+  <si>
+    <t>تعداد سیلندر</t>
+  </si>
+  <si>
+    <t>نوع سوخت</t>
+  </si>
+  <si>
+    <t>حجم سیلندر</t>
+  </si>
+  <si>
+    <t>نام و نام خانوادگی فروش</t>
+  </si>
+  <si>
+    <t>شماره ملی</t>
+  </si>
+  <si>
+    <t>آدرس و کد پستی</t>
+  </si>
+  <si>
+    <t>تلفن همراه</t>
+  </si>
+  <si>
+    <t>تلفن ثابت</t>
   </si>
 </sst>
 </file>
@@ -573,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -594,11 +642,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -613,6 +671,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -895,2671 +956,2959 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
         <v>49711</v>
       </c>
-      <c r="B1" s="3">
-        <v>142</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4">
+        <v>142</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="5">
+      <c r="G1" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6">
         <v>110.0001</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="L1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>49712</v>
       </c>
-      <c r="B2" s="3">
-        <v>142</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4">
+        <v>142</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="G2" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6">
         <v>110.00020000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>49713</v>
       </c>
-      <c r="B3" s="4">
-        <v>142</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="5">
+        <v>142</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="G3" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6">
         <v>110.0003</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>49714</v>
       </c>
-      <c r="B4" s="4">
-        <v>142</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="5">
+        <v>142</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="G4" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="6">
         <v>110.0004</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>49715</v>
       </c>
-      <c r="B5" s="3">
-        <v>142</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="4">
+        <v>142</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="G5" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="6">
         <v>110.0005</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>49716</v>
       </c>
-      <c r="B6" s="4">
-        <v>142</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="5">
+        <v>142</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="G6" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6">
         <v>110.00060000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>49717</v>
       </c>
-      <c r="B7" s="4">
-        <v>142</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="5">
+        <v>142</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="G7" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6">
         <v>110.00069999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>49718</v>
       </c>
-      <c r="B8" s="3">
-        <v>142</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="4">
+        <v>142</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="G8" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="6">
         <v>110.0008</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>49719</v>
       </c>
-      <c r="B9" s="4">
-        <v>142</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="5">
+        <v>142</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="G9" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="6">
         <v>110.0009</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>49721</v>
       </c>
-      <c r="B10" s="4">
-        <v>142</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="5">
+        <v>142</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="G10" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="6">
         <v>110.001</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>49722</v>
       </c>
-      <c r="B11" s="3">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="4">
+        <v>142</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="5">
+      <c r="G11" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="6">
         <v>110.00109999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>49723</v>
       </c>
-      <c r="B12" s="4">
-        <v>142</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="5">
+        <v>142</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="5">
+      <c r="G12" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="6">
         <v>110.0012</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>49724</v>
       </c>
-      <c r="B13" s="4">
-        <v>142</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="5">
+        <v>142</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="5">
+      <c r="G13" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="6">
         <v>110.0013</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>49725</v>
       </c>
-      <c r="B14" s="3">
-        <v>142</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="4">
+        <v>142</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="G14" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="6">
         <v>110.0014</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>49726</v>
       </c>
-      <c r="B15" s="4">
-        <v>142</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="5">
+        <v>142</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="G15" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="6">
         <v>110.00149999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>49727</v>
       </c>
-      <c r="B16" s="4">
-        <v>142</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="5">
+        <v>142</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="5">
+      <c r="G16" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="6">
         <v>110.0016</v>
       </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>49728</v>
       </c>
-      <c r="B17" s="3">
-        <v>142</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="4">
+        <v>142</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="5">
+      <c r="G17" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="6">
         <v>110.0017</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>49729</v>
       </c>
-      <c r="B18" s="4">
-        <v>142</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="5">
+        <v>142</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="G18" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="6">
         <v>110.0018</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>49731</v>
       </c>
-      <c r="B19" s="4">
-        <v>142</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="5">
+        <v>142</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="G19" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="6">
         <v>110.00190000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>49732</v>
       </c>
-      <c r="B20" s="3">
-        <v>142</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="4">
+        <v>142</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="G20" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>49733</v>
       </c>
-      <c r="B21" s="4">
-        <v>142</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="5">
+        <v>142</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="5">
+      <c r="G21" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="6">
         <v>110.0021</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>49734</v>
       </c>
-      <c r="B22" s="4">
-        <v>142</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="5">
+        <v>142</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="G22" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="6">
         <v>110.0022</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>49735</v>
       </c>
-      <c r="B23" s="3">
-        <v>142</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="4">
+        <v>142</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" s="5">
+      <c r="G23" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="6">
         <v>110.00230000000001</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>49736</v>
       </c>
-      <c r="B24" s="4">
-        <v>142</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="5">
+        <v>142</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="5">
+      <c r="G24" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="6">
         <v>110.00239999999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>49737</v>
       </c>
-      <c r="B25" s="4">
-        <v>142</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="5">
+        <v>142</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="G25" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="6">
         <v>110.0025</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>49738</v>
       </c>
-      <c r="B26" s="3">
-        <v>142</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="4">
+        <v>142</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="5">
+      <c r="G26" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="6">
         <v>110.0026</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>49739</v>
       </c>
-      <c r="B27" s="4">
-        <v>142</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="5">
+        <v>142</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="5">
+      <c r="G27" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="6">
         <v>110.0027</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>49741</v>
       </c>
-      <c r="B28" s="4">
-        <v>142</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="5">
+        <v>142</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="5">
+      <c r="G28" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="6">
         <v>110.00279999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>49742</v>
       </c>
-      <c r="B29" s="3">
-        <v>142</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="4">
+        <v>142</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="5">
+      <c r="G29" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="6">
         <v>110.0029</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>49743</v>
       </c>
-      <c r="B30" s="4">
-        <v>142</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="5">
+        <v>142</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="5" t="s">
+      <c r="G30" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>49744</v>
       </c>
-      <c r="B31" s="4">
-        <v>142</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="5">
+        <v>142</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" s="5">
+      <c r="G31" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="6">
         <v>110.0031</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>49745</v>
       </c>
-      <c r="B32" s="3">
-        <v>142</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="4">
+        <v>142</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" s="5">
+      <c r="G32" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="6">
         <v>110.00320000000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>49746</v>
       </c>
-      <c r="B33" s="4">
-        <v>142</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="5">
+        <v>142</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="5">
+      <c r="G33" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="6">
         <v>110.0033</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>49747</v>
       </c>
-      <c r="B34" s="4">
-        <v>142</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="5">
+        <v>142</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K34" s="5">
+      <c r="G34" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="6">
         <v>110.0034</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>49748</v>
       </c>
-      <c r="B35" s="3">
-        <v>142</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="4">
+        <v>142</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K35" s="5">
+      <c r="G35" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="6">
         <v>110.0035</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>49749</v>
       </c>
-      <c r="B36" s="4">
-        <v>142</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="5">
+        <v>142</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="5">
+      <c r="G36" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="6">
         <v>110.00360000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>49751</v>
       </c>
-      <c r="B37" s="4">
-        <v>142</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="5">
+        <v>142</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="5">
+      <c r="G37" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="6">
         <v>110.00369999999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>49752</v>
       </c>
-      <c r="B38" s="3">
-        <v>142</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="4">
+        <v>142</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="5">
+      <c r="G38" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="6">
         <v>110.0038</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>49753</v>
       </c>
-      <c r="B39" s="4">
-        <v>142</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="5">
+        <v>142</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G39" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="5">
+      <c r="G39" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="6">
         <v>110.0039</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>49754</v>
       </c>
-      <c r="B40" s="4">
-        <v>142</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="5">
+        <v>142</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G40" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" s="5" t="s">
+      <c r="G40" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>49755</v>
       </c>
-      <c r="B41" s="3">
-        <v>142</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="4">
+        <v>142</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K41" s="5">
+      <c r="G41" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="6">
         <v>110.00409999999999</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>49756</v>
       </c>
-      <c r="B42" s="4">
-        <v>142</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="5">
+        <v>142</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K42" s="5">
+      <c r="G42" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="6">
         <v>110.0042</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>49757</v>
       </c>
-      <c r="B43" s="4">
-        <v>142</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="5">
+        <v>142</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G43" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" s="5">
+      <c r="G43" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="6">
         <v>110.0043</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>49758</v>
       </c>
-      <c r="B44" s="3">
-        <v>142</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="4">
+        <v>142</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K44" s="5">
+      <c r="G44" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="6">
         <v>110.0044</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>49759</v>
       </c>
-      <c r="B45" s="4">
-        <v>142</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="5">
+        <v>142</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" s="5">
+      <c r="G45" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="6">
         <v>110.00449999999999</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>49761</v>
       </c>
-      <c r="B46" s="4">
-        <v>142</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="5">
+        <v>142</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="5">
+      <c r="G46" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="6">
         <v>110.0046</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>49762</v>
       </c>
-      <c r="B47" s="3">
-        <v>142</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="4">
+        <v>142</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G47" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K47" s="5">
+      <c r="G47" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" s="6">
         <v>110.0047</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>49763</v>
       </c>
-      <c r="B48" s="4">
-        <v>142</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="5">
+        <v>142</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G48" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K48" s="5">
+      <c r="G48" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K48" s="6">
         <v>110.0048</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>49764</v>
       </c>
-      <c r="B49" s="4">
-        <v>142</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="5">
+        <v>142</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G49" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" s="5">
+      <c r="G49" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="6">
         <v>110.00490000000001</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>49765</v>
       </c>
-      <c r="B50" s="3">
-        <v>142</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="4">
+        <v>142</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G50" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" s="5" t="s">
+      <c r="G50" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>49766</v>
       </c>
-      <c r="B51" s="4">
-        <v>142</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="5">
+        <v>142</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G51" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" s="5">
+      <c r="G51" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51" s="6">
         <v>110.0051</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <v>49767</v>
       </c>
-      <c r="B52" s="4">
-        <v>142</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="5">
+        <v>142</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G52" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K52" s="5">
+      <c r="G52" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="6">
         <v>110.0052</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>49768</v>
       </c>
-      <c r="B53" s="3">
-        <v>142</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="4">
+        <v>142</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G53" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" s="5">
+      <c r="G53" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="6">
         <v>110.00530000000001</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>49769</v>
       </c>
-      <c r="B54" s="4">
-        <v>142</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="5">
+        <v>142</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G54" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K54" s="5">
+      <c r="G54" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="6">
         <v>110.00539999999999</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>49771</v>
       </c>
-      <c r="B55" s="4">
-        <v>142</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="5">
+        <v>142</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G55" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K55" s="5">
+      <c r="G55" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="6">
         <v>110.0055</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>49772</v>
       </c>
-      <c r="B56" s="3">
-        <v>142</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="4">
+        <v>142</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G56" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K56" s="5">
+      <c r="G56" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" s="6">
         <v>110.0056</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>49773</v>
       </c>
-      <c r="B57" s="4">
-        <v>142</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="5">
+        <v>142</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G57" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K57" s="5">
+      <c r="G57" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="6">
         <v>110.0057</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>49774</v>
       </c>
-      <c r="B58" s="4">
-        <v>142</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="5">
+        <v>142</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G58" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K58" s="5">
+      <c r="G58" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" s="6">
         <v>110.00579999999999</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>49775</v>
       </c>
-      <c r="B59" s="3">
-        <v>142</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="4">
+        <v>142</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G59" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K59" s="5">
+      <c r="G59" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" s="6">
         <v>110.0059</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>49776</v>
       </c>
-      <c r="B60" s="4">
-        <v>142</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="5">
+        <v>142</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G60" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K60" s="5" t="s">
+      <c r="G60" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>49777</v>
       </c>
-      <c r="B61" s="4">
-        <v>142</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="5">
+        <v>142</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G61" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K61" s="5">
+      <c r="G61" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" s="6">
         <v>110.0061</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>49778</v>
       </c>
-      <c r="B62" s="3">
-        <v>142</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="4">
+        <v>142</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="G62" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K62" s="5">
+      <c r="G62" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="6">
         <v>110.00620000000001</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>49779</v>
       </c>
-      <c r="B63" s="4">
-        <v>142</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="5">
+        <v>142</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G63" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K63" s="5">
+      <c r="F63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K63" s="6">
         <v>110.0063</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>49781</v>
       </c>
-      <c r="B64" s="4">
-        <v>142</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="5">
+        <v>142</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G64" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K64" s="5">
+      <c r="G64" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K64" s="6">
         <v>110.0064</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>49782</v>
       </c>
-      <c r="B65" s="3">
-        <v>142</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" s="4">
+        <v>142</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G65" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K65" s="5">
+      <c r="G65" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" s="6">
         <v>110.0065</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <v>49783</v>
       </c>
-      <c r="B66" s="4">
-        <v>142</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="5">
+        <v>142</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G66" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K66" s="5">
+      <c r="G66" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" s="6">
         <v>110.00660000000001</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>49784</v>
       </c>
-      <c r="B67" s="4">
-        <v>142</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" s="5">
+        <v>142</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G67" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K67" s="5">
+      <c r="G67" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" s="6">
         <v>110.0067</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="5">
         <v>49785</v>
       </c>
-      <c r="B68" s="3">
-        <v>142</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="4">
+        <v>142</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G68" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K68" s="5">
+      <c r="G68" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K68" s="6">
         <v>110.0068</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>49786</v>
       </c>
-      <c r="B69" s="4">
-        <v>142</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="5">
+        <v>142</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G69" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K69" s="5">
+      <c r="G69" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" s="6">
         <v>110.0069</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="A70" s="5">
         <v>49787</v>
       </c>
-      <c r="B70" s="4">
-        <v>142</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="5">
+        <v>142</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G70" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K70" s="5" t="s">
+      <c r="G70" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K70" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>49788</v>
       </c>
-      <c r="B71" s="3">
-        <v>142</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="4">
+        <v>142</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G71" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K71" s="5">
+      <c r="G71" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K71" s="6">
         <v>110.00709999999999</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>49789</v>
       </c>
-      <c r="B72" s="4">
-        <v>142</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="5">
+        <v>142</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G72" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K72" s="5">
+      <c r="G72" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K72" s="6">
         <v>110.0072</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>49791</v>
       </c>
-      <c r="B73" s="4">
-        <v>142</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="5">
+        <v>142</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G73" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K73" s="5">
+      <c r="G73" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K73" s="6">
         <v>110.0073</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>49792</v>
       </c>
-      <c r="B74" s="3">
-        <v>142</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="B74" s="4">
+        <v>142</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G74" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K74" s="5">
+      <c r="G74" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K74" s="6">
         <v>110.0074</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>49793</v>
       </c>
-      <c r="B75" s="4">
-        <v>142</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="5">
+        <v>142</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G75" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K75" s="5">
+      <c r="G75" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K75" s="6">
         <v>110.00749999999999</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>49794</v>
       </c>
-      <c r="B76" s="4">
-        <v>142</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="5">
+        <v>142</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G76" s="1">
-        <v>1399</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K76" s="5">
+      <c r="G76" s="2">
+        <v>1399</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" s="6">
         <v>110.0076</v>
       </c>
     </row>
